--- a/biology/Zoologie/Chuxiongosaurus/Chuxiongosaurus.xlsx
+++ b/biology/Zoologie/Chuxiongosaurus/Chuxiongosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chuxiongosaurus lufengensis
-Chuxiongosaurus est un  genre éteint de dinosaures sauropodomorphes du Jurassique inférieur. Les restes fossiles de l'unique espèce connue, Chuxiongosaurus lufengensis, ont été découverts dans la formation de Lufeng inférieure, dans la province chinoise du Yunnan[1]. 
+Chuxiongosaurus est un  genre éteint de dinosaures sauropodomorphes du Jurassique inférieur. Les restes fossiles de l'unique espèce connue, Chuxiongosaurus lufengensis, ont été découverts dans la formation de Lufeng inférieure, dans la province chinoise du Yunnan. 
 </t>
         </is>
       </c>
